--- a/biology/Zoologie/Calcarea/Calcarea.xlsx
+++ b/biology/Zoologie/Calcarea/Calcarea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les éponges calcaires (Calcarea ou Calcispongia) forment une classe appartenant à l'embranchement des Porifera.
 </t>
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le squelette de ces éponges est exclusivement constitué de spicules calcaires, le plus souvent sous la forme de calcite, formant parfois une masse continue. Une différence avec les autres « Éponges » est l'absence d'une différenciation des spicules en microsclères et mégasclères. Ces deux points constituent des caractéristiques propres à ce groupe.
 Les formes rencontrées vont des plus simples (type ascon), aux plus complexes comportant en plus des corbeilles vibratiles et des canaux inhalants et exhalants (type leucon), en passant par les formes intermédiaires n'ayant en plus que des chambres vibratiles (type sycon).
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les éponges calcaires sont toutes marines. Mais, probablement à cause de la composition de leur squelette, la plupart des espèces se rencontrent dans les 100 premiers mètres sous la surface. (Voir solubilité du carbonate de calcium).
 Cependant, certaines espèces habitent à des profondeurs abyssales.
@@ -575,7 +591,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces organismes ont besoin d'un substrat dur pour se développer. La larve se fixe sur un support par l'extrémité blastoporale.
 </t>
@@ -606,7 +624,9 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La gastrulation a été observée dans les formes Sycon.
 </t>
@@ -637,9 +657,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (1er mars 2016)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (1er mars 2016) :
 sous-classe Calcaronea Bidder, 1898
 ordre Baerida Borojevic, Boury-Esnault &amp; Vacelet, 2000
 famille Baeriidae Borojevic, Boury-Esnault &amp; Vacelet, 2000
@@ -699,7 +721,9 @@
           <t>Espèces remarquables</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Chancellaria sp. (plus ancien fossile connu : -540 MA;Cambrien)
 Clathrina clathrus
